--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115"/>
   </bookViews>
   <sheets>
-    <sheet name="Conversion Table" sheetId="2" r:id="rId1"/>
-    <sheet name="Cases" sheetId="1" r:id="rId2"/>
+    <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
+    <sheet name="Converting Java Objects to R" sheetId="3" r:id="rId2"/>
+    <sheet name="Cases" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="240">
   <si>
     <t>logical</t>
   </si>
@@ -114,9 +115,6 @@
     <t>scalar</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>raw</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>String[]</t>
-  </si>
-  <si>
     <t>boolean[]</t>
   </si>
   <si>
@@ -327,9 +322,6 @@
     <t>table</t>
   </si>
   <si>
-    <t>list of vectors</t>
-  </si>
-  <si>
     <t>LengthOneVectorAsArray</t>
   </si>
   <si>
@@ -414,9 +406,6 @@
     <t>Unsupported. Convert to character.</t>
   </si>
   <si>
-    <t>vector / 1D array / 1D table</t>
-  </si>
-  <si>
     <t>Special Constants</t>
   </si>
   <si>
@@ -498,12 +487,6 @@
     <t>Object[]</t>
   </si>
   <si>
-    <t>NA_real_ maps to a reserved value Double.longBitsToDouble(0x7ff00000000007a2L)</t>
-  </si>
-  <si>
-    <t>NA_integer_ maps to a reserved value Integer.MIN_VALUE</t>
-  </si>
-  <si>
     <t>The reserved value for NA is not the same as NaN in Java, but Double.isNaN() will still return true.</t>
   </si>
   <si>
@@ -585,12 +568,6 @@
     <t>Java null behavior</t>
   </si>
   <si>
-    <t>R NA Behavior</t>
-  </si>
-  <si>
-    <t>Same as arrays</t>
-  </si>
-  <si>
     <t>Native JavaScript objects implement the map interface. They will be converted to named lists or data frames as appropriate.</t>
   </si>
   <si>
@@ -603,9 +580,6 @@
     <t>int[]...[]</t>
   </si>
   <si>
-    <t>String[]...[]</t>
-  </si>
-  <si>
     <t>boolean[]...[]</t>
   </si>
   <si>
@@ -636,21 +610,6 @@
     <t>matrix / n-dimensional arrays and tables (see documentation for array.order)</t>
   </si>
   <si>
-    <t>data frame when data.frame.row.major == FALSE</t>
-  </si>
-  <si>
-    <t>vector of length one when length.one.vector.as.array == FALSE and scalars.as.objects == TRUE</t>
-  </si>
-  <si>
-    <t>factor when coerce.factors == TRUE</t>
-  </si>
-  <si>
-    <t>factor when coerce.factors == FALSE</t>
-  </si>
-  <si>
-    <t>data frame when data.frame.row.major == TRUE</t>
-  </si>
-  <si>
     <t>n-dimensional rectangular array (see documentation for array.order)</t>
   </si>
   <si>
@@ -693,9 +652,6 @@
     <t>Nested lists are supported.</t>
   </si>
   <si>
-    <t>vector of length one when length.one.vector.as.array == FALSE and scalars.as.objects == FALSE</t>
-  </si>
-  <si>
     <t>Same as list</t>
   </si>
   <si>
@@ -733,6 +689,63 @@
   </si>
   <si>
     <t>Java null maps to FALSE with warning.</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>java.lang.String[]</t>
+  </si>
+  <si>
+    <t>java.lang.String[]...[]</t>
+  </si>
+  <si>
+    <t>NA Behavior</t>
+  </si>
+  <si>
+    <t>Other supported structures</t>
+  </si>
+  <si>
+    <t>vector / one-dimensional array / one-dimensional table</t>
+  </si>
+  <si>
+    <t>vector of length one when length.one.vector.as.array = FALSE and scalars.as.objects = FALSE</t>
+  </si>
+  <si>
+    <t>vector of length one when length.one.vector.as.array = FALSE and scalars.as.objects = TRUE</t>
+  </si>
+  <si>
+    <t>factor when coerce.factors = TRUE</t>
+  </si>
+  <si>
+    <t>factor when coerce.factors = FALSE</t>
+  </si>
+  <si>
+    <t>data frame when data.frame.row.major = FALSE</t>
+  </si>
+  <si>
+    <t>data frame when data.frame.row.major = TRUE</t>
+  </si>
+  <si>
+    <t>Same as rectangular arrays</t>
+  </si>
+  <si>
+    <t>list of (lists of) vectors</t>
+  </si>
+  <si>
+    <t>java.lang.Double</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
+    <t>java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>java.lang.Byte</t>
+  </si>
+  <si>
+    <t>NA_integer_ maps to a reserved value</t>
   </si>
 </sst>
 </file>
@@ -750,14 +763,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -784,6 +789,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -820,8 +833,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,32 +842,17 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -874,16 +872,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="4" builtinId="15"/>
+    <cellStyle name="Title" xfId="3" builtinId="15"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1223,1273 +1238,1467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="11" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="45" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="B56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="B57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="13"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C113" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D116" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="B62" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A61:G71">
-    <sortCondition ref="A61"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M107"/>
   <sheetViews>
@@ -2505,55 +2714,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2575,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2583,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -2594,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2602,16 +2811,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2619,18 +2828,18 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -2638,10 +2847,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2649,59 +2858,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2714,27 +2923,27 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,7 +2979,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,7 +2989,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,20 +3004,20 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,22 +3027,22 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,12 +3057,12 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,17 +3072,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2884,22 +3093,22 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -2909,7 +3118,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -2922,25 +3131,25 @@
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -2950,19 +3159,19 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
         <v>75</v>
-      </c>
-      <c r="G76" t="s">
-        <v>76</v>
-      </c>
-      <c r="H76" t="s">
-        <v>77</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -2972,16 +3181,16 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -2997,17 +3206,17 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -3017,93 +3226,93 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>The reserved value for NA is not the same as NaN in Java, but Double.isNaN() will still return true.</t>
   </si>
   <si>
-    <t>R factor values (levels) are stored internally as character vectors. An attempt is made to convert the factor into integer, numeric, or logical vectors. If conversion fails, the factor is treated as a character vector. Note that some precision may be lost for numeric (double) values.</t>
-  </si>
-  <si>
     <t>Map (java.util.LinkedHashMap)</t>
   </si>
   <si>
@@ -746,6 +743,9 @@
   </si>
   <si>
     <t>NA_integer_ maps to a reserved value</t>
+  </si>
+  <si>
+    <t>R factor values (levels) are stored internally as a character vector. An attempt is made to convert the factor into integer, numeric, or logical vectors. If conversion fails, the factor is treated as a character vector. Note that some precision may be lost for numeric (double) values.</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,12 +1256,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>87</v>
@@ -1286,10 +1286,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>153</v>
@@ -1301,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>140</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>138</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>87</v>
@@ -1415,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>153</v>
@@ -1429,10 +1429,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>140</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>138</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>87</v>
@@ -1546,7 +1546,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>153</v>
@@ -1560,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>140</v>
@@ -1582,10 +1582,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
@@ -1655,13 +1655,13 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>87</v>
@@ -1673,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>153</v>
@@ -1688,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>140</v>
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>138</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>87</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>90</v>
@@ -1818,7 +1818,7 @@
         <v>90</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,10 +1826,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>51</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -1861,13 +1861,13 @@
         <v>91</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>92</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,10 +1889,10 @@
         <v>94</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1961,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1974,13 +1976,13 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>87</v>
@@ -2105,7 +2107,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>37</v>
@@ -2124,13 +2126,13 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>87</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,12 +2163,12 @@
         <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
@@ -2177,7 +2179,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
@@ -2188,7 +2190,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>35</v>
@@ -2199,7 +2201,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>36</v>
@@ -2210,7 +2212,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>35</v>
@@ -2224,7 +2226,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>35</v>
@@ -2238,7 +2240,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>35</v>
@@ -2260,7 +2262,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>36</v>
@@ -2272,7 +2274,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>37</v>
@@ -2283,7 +2285,7 @@
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2291,13 +2293,13 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>87</v>
@@ -2305,7 +2307,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>43</v>
@@ -2314,26 +2316,26 @@
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>44</v>
@@ -2344,7 +2346,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>41</v>
@@ -2355,7 +2357,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>41</v>
@@ -2366,7 +2368,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>42</v>
@@ -2377,7 +2379,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
@@ -2391,7 +2393,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>41</v>
@@ -2405,7 +2407,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
@@ -2416,7 +2418,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>86</v>
@@ -2427,7 +2429,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>42</v>
@@ -2438,7 +2440,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>44</v>
@@ -2449,7 +2451,7 @@
     </row>
     <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2457,13 +2459,13 @@
     </row>
     <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>87</v>
@@ -2471,16 +2473,16 @@
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="C48" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2493,13 +2495,13 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>87</v>
@@ -2507,7 +2509,7 @@
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>34</v>
@@ -2516,12 +2518,12 @@
         <v>138</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>49</v>
@@ -2530,7 +2532,7 @@
         <v>138</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2543,13 +2545,13 @@
     </row>
     <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>87</v>
@@ -2590,7 +2592,7 @@
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>35</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,21 +2642,21 @@
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>34</v>
@@ -2663,12 +2665,12 @@
         <v>138</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>50</v>
@@ -2727,18 +2729,18 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2784,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3037,7 +3039,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -151,18 +151,6 @@
     <t>raw vector</t>
   </si>
   <si>
-    <t>numeric matrix</t>
-  </si>
-  <si>
-    <t>integer matrix</t>
-  </si>
-  <si>
-    <t>logical matrix</t>
-  </si>
-  <si>
-    <t>character matrix</t>
-  </si>
-  <si>
     <t>Containing only Byte/null</t>
   </si>
   <si>
@@ -529,9 +517,6 @@
     <t>Java null maps to raw 0x00 with warning.</t>
   </si>
   <si>
-    <t>raw matrix</t>
-  </si>
-  <si>
     <t>All else</t>
   </si>
   <si>
@@ -562,9 +547,6 @@
     <t>See documentation for setStringsAsFactors.</t>
   </si>
   <si>
-    <t>Java null behavior</t>
-  </si>
-  <si>
     <t>Native JavaScript objects implement the map interface. They will be converted to named lists or data frames as appropriate.</t>
   </si>
   <si>
@@ -746,6 +728,24 @@
   </si>
   <si>
     <t>R factor values (levels) are stored internally as a character vector. An attempt is made to convert the factor into integer, numeric, or logical vectors. If conversion fails, the factor is treated as a character vector. Note that some precision may be lost for numeric (double) values.</t>
+  </si>
+  <si>
+    <t>Java null Behavior</t>
+  </si>
+  <si>
+    <t>logical vector or array</t>
+  </si>
+  <si>
+    <t>raw vector or array</t>
+  </si>
+  <si>
+    <t>character vector or array</t>
+  </si>
+  <si>
+    <t>numeric vector or array</t>
+  </si>
+  <si>
+    <t>integer vector or array</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,12 +1256,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1269,16 +1269,16 @@
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1286,13 +1286,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1301,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1312,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1337,13 +1337,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,46 +1351,46 @@
         <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -1398,16 +1398,16 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1415,13 +1415,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,10 +1429,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1465,13 +1465,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,46 +1479,46 @@
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
@@ -1526,16 +1526,16 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1546,10 +1546,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1582,10 +1582,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -1596,10 +1596,10 @@
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,46 +1607,46 @@
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -1673,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -1688,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,10 +1699,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1710,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1724,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,41 +1738,41 @@
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
@@ -1795,30 +1795,30 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,13 +1826,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,101 +1840,101 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1963,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1976,21 +1976,21 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>38</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>40</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>37</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>35</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>35</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>36</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
@@ -2066,12 +2066,12 @@
         <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>35</v>
@@ -2080,12 +2080,12 @@
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>35</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>36</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>37</v>
@@ -2126,21 +2126,21 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>38</v>
@@ -2149,112 +2149,112 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>10</v>
@@ -2262,30 +2262,30 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2293,135 +2293,135 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="C33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>42</v>
+        <v>193</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>10</v>
@@ -2429,29 +2429,29 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>42</v>
+        <v>198</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2459,35 +2459,35 @@
     </row>
     <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2495,49 +2495,49 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2545,24 +2545,24 @@
     </row>
     <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>10</v>
@@ -2570,51 +2570,51 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>38</v>
@@ -2623,60 +2623,60 @@
         <v>0</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,55 +2716,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2816,13 +2816,13 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2860,59 +2860,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2925,27 +2925,27 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,20 +3006,20 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,22 +3029,22 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,12 +3059,12 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,17 +3074,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3095,22 +3095,22 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -3133,25 +3133,25 @@
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -3161,19 +3161,19 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -3183,16 +3183,16 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -3228,93 +3228,93 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="243">
   <si>
     <t>logical</t>
   </si>
@@ -118,51 +118,9 @@
     <t>raw</t>
   </si>
   <si>
-    <t>double[]</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>boolean[]</t>
-  </si>
-  <si>
-    <t>byte[]</t>
-  </si>
-  <si>
     <t>data frame</t>
   </si>
   <si>
-    <t>numeric vector</t>
-  </si>
-  <si>
-    <t>integer vector</t>
-  </si>
-  <si>
-    <t>character vector</t>
-  </si>
-  <si>
-    <t>logical vector</t>
-  </si>
-  <si>
-    <t>one-dimensional array</t>
-  </si>
-  <si>
-    <t>raw vector</t>
-  </si>
-  <si>
-    <t>Containing only Byte/null</t>
-  </si>
-  <si>
-    <t>Containing only Integer/Short/Byte/null</t>
-  </si>
-  <si>
-    <t>Containing only Boolean/null</t>
-  </si>
-  <si>
-    <t>Containing only Character/String/null</t>
-  </si>
-  <si>
     <t>named list</t>
   </si>
   <si>
@@ -172,18 +130,12 @@
     <t>null</t>
   </si>
   <si>
-    <t>raw 0x00</t>
-  </si>
-  <si>
     <t>java.util.Map</t>
   </si>
   <si>
     <t>java.util.Collection</t>
   </si>
   <si>
-    <t>Containing only null</t>
-  </si>
-  <si>
     <t>length zero</t>
   </si>
   <si>
@@ -262,30 +214,12 @@
     <t>same as all above</t>
   </si>
   <si>
-    <t>Containing byte/Byte arrays/collections</t>
-  </si>
-  <si>
-    <t>list containing raw members</t>
-  </si>
-  <si>
-    <t>java.math.BigInteger</t>
-  </si>
-  <si>
-    <t>java.math.BigDecimal</t>
-  </si>
-  <si>
     <t>handled as a collection</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>POSIXlt, POSIXct, POSIXt</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>See comment.</t>
   </si>
   <si>
@@ -364,12 +298,6 @@
     <t>large structures</t>
   </si>
   <si>
-    <t>Overflows result in Inf.</t>
-  </si>
-  <si>
-    <t>Java null maps to 0x00 with warning.</t>
-  </si>
-  <si>
     <t>length one structures</t>
   </si>
   <si>
@@ -391,9 +319,6 @@
     <t>same as above</t>
   </si>
   <si>
-    <t>Unsupported. Convert to character.</t>
-  </si>
-  <si>
     <t>Special Constants</t>
   </si>
   <si>
@@ -433,90 +358,6 @@
     <t>--</t>
   </si>
   <si>
-    <t>Unsupported. Use callbacks.</t>
-  </si>
-  <si>
-    <t>NA_character_ maps to Java null</t>
-  </si>
-  <si>
-    <t>R raw values and Java bytes are both 8 bits, but they are interpreted differently. R raw values range from 0 to 255 (i.e., unsigned bytes). Java byte values range from -128 to 127 (i.e., signed bytes). The 8-bit value 0xff represents 255 in R, but is -1 in Java.</t>
-  </si>
-  <si>
-    <t>double, Double</t>
-  </si>
-  <si>
-    <t>float, Float</t>
-  </si>
-  <si>
-    <t>long, Long</t>
-  </si>
-  <si>
-    <t>int, Integer</t>
-  </si>
-  <si>
-    <t>short, Short</t>
-  </si>
-  <si>
-    <t>byte, Byte</t>
-  </si>
-  <si>
-    <t>boolean, Boolean</t>
-  </si>
-  <si>
-    <t>char, Character</t>
-  </si>
-  <si>
-    <t>byte[], Byte[]</t>
-  </si>
-  <si>
-    <t>boolean[], Boolean[]</t>
-  </si>
-  <si>
-    <t>Object[]</t>
-  </si>
-  <si>
-    <t>The reserved value for NA is not the same as NaN in Java, but Double.isNaN() will still return true.</t>
-  </si>
-  <si>
-    <t>Map (java.util.LinkedHashMap)</t>
-  </si>
-  <si>
-    <t>List (java.util.ArrayList)</t>
-  </si>
-  <si>
-    <t>List (java.util.ArrayList) containing maps (java.util.LinkedHashMap) that represent each row.</t>
-  </si>
-  <si>
-    <t>Map (java.util.LinkedHashMap) containing arrays that represent each column.</t>
-  </si>
-  <si>
-    <t>java.math.BigDecimal[]</t>
-  </si>
-  <si>
-    <t>java.math.BigInteger[]</t>
-  </si>
-  <si>
-    <t>double[], Double[]</t>
-  </si>
-  <si>
-    <t>float[], Float[]</t>
-  </si>
-  <si>
-    <t>long[], Long[]</t>
-  </si>
-  <si>
-    <t>int[], Integer[]</t>
-  </si>
-  <si>
-    <t>short[], Short[]</t>
-  </si>
-  <si>
-    <t>char[], Character[]</t>
-  </si>
-  <si>
-    <t>Java null maps to raw 0x00 with warning.</t>
-  </si>
-  <si>
     <t>All else</t>
   </si>
   <si>
@@ -526,45 +367,21 @@
     <t>Ragged arrays are multi-dimensional arrays that have member arrays of different lengths.</t>
   </si>
   <si>
-    <t>See matrix mappings</t>
-  </si>
-  <si>
-    <t>A mixture of Java numeric types will be converted to the most generic type.</t>
-  </si>
-  <si>
     <t>Containing maps representing rows</t>
   </si>
   <si>
     <t>All other contents</t>
   </si>
   <si>
-    <t>Containing a mixture of any other java.lang.Number subclasses and null</t>
-  </si>
-  <si>
     <t>Containing &gt; 1 arrays/collections of the same length</t>
   </si>
   <si>
-    <t>See documentation for setStringsAsFactors.</t>
-  </si>
-  <si>
     <t>Native JavaScript objects implement the map interface. They will be converted to named lists or data frames as appropriate.</t>
   </si>
   <si>
     <t>nested structures</t>
   </si>
   <si>
-    <t>double[]...[]</t>
-  </si>
-  <si>
-    <t>int[]...[]</t>
-  </si>
-  <si>
-    <t>boolean[]...[]</t>
-  </si>
-  <si>
-    <t>byte[]...[]</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -589,42 +406,9 @@
     <t>matrix / n-dimensional arrays and tables (see documentation for array.order)</t>
   </si>
   <si>
-    <t>n-dimensional rectangular array (see documentation for array.order)</t>
-  </si>
-  <si>
     <t>boolean[]...[], Boolean[]...[]</t>
   </si>
   <si>
-    <t>byte[]...[], Byte[]...[]</t>
-  </si>
-  <si>
-    <t>char[]...[], Character[]...[]</t>
-  </si>
-  <si>
-    <t>double[]...[], Double[]...[]</t>
-  </si>
-  <si>
-    <t>float[]...[], Float[]...[]</t>
-  </si>
-  <si>
-    <t>int[]...[], Integer[]...[]</t>
-  </si>
-  <si>
-    <t>java.math.BigDecimal[]...[]</t>
-  </si>
-  <si>
-    <t>java.math.BigInteger[]...[]</t>
-  </si>
-  <si>
-    <t>long[]...[], Long[]...[]</t>
-  </si>
-  <si>
-    <t>Object[]...[]</t>
-  </si>
-  <si>
-    <t>short[]...[], Short[]...[]</t>
-  </si>
-  <si>
     <t>n-dimensional ragged array</t>
   </si>
   <si>
@@ -634,9 +418,6 @@
     <t>Same as list</t>
   </si>
   <si>
-    <t>NA_real_ maps to a reserved value</t>
-  </si>
-  <si>
     <t>Return Value</t>
   </si>
   <si>
@@ -646,45 +427,9 @@
     <t>Converting R Objects to Java Objects</t>
   </si>
   <si>
-    <t>R integer vector</t>
-  </si>
-  <si>
-    <t>R numeric vector</t>
-  </si>
-  <si>
-    <t>R logical vector</t>
-  </si>
-  <si>
-    <t>R character vector</t>
-  </si>
-  <si>
-    <t>rJava "jbyte" class</t>
-  </si>
-  <si>
-    <t>NA values are converted to Java false with a warning.</t>
-  </si>
-  <si>
-    <t>NA maps to Java false</t>
-  </si>
-  <si>
-    <t>Java null maps to FALSE with warning.</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
-    <t>java.lang.String[]</t>
-  </si>
-  <si>
-    <t>java.lang.String[]...[]</t>
-  </si>
-  <si>
     <t>NA Behavior</t>
   </si>
   <si>
-    <t>Other supported structures</t>
-  </si>
-  <si>
     <t>vector / one-dimensional array / one-dimensional table</t>
   </si>
   <si>
@@ -694,58 +439,322 @@
     <t>vector of length one when length.one.vector.as.array = FALSE and scalars.as.objects = TRUE</t>
   </si>
   <si>
-    <t>factor when coerce.factors = TRUE</t>
-  </si>
-  <si>
-    <t>factor when coerce.factors = FALSE</t>
-  </si>
-  <si>
-    <t>data frame when data.frame.row.major = FALSE</t>
-  </si>
-  <si>
-    <t>data frame when data.frame.row.major = TRUE</t>
-  </si>
-  <si>
     <t>Same as rectangular arrays</t>
   </si>
   <si>
     <t>list of (lists of) vectors</t>
   </si>
   <si>
-    <t>java.lang.Double</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
-    <t>java.lang.Boolean</t>
-  </si>
-  <si>
-    <t>java.lang.Byte</t>
-  </si>
-  <si>
-    <t>NA_integer_ maps to a reserved value</t>
-  </si>
-  <si>
     <t>R factor values (levels) are stored internally as a character vector. An attempt is made to convert the factor into integer, numeric, or logical vectors. If conversion fails, the factor is treated as a character vector. Note that some precision may be lost for numeric (double) values.</t>
   </si>
   <si>
     <t>Java null Behavior</t>
   </si>
   <si>
-    <t>logical vector or array</t>
-  </si>
-  <si>
-    <t>raw vector or array</t>
-  </si>
-  <si>
-    <t>character vector or array</t>
-  </si>
-  <si>
-    <t>numeric vector or array</t>
-  </si>
-  <si>
-    <t>integer vector or array</t>
+    <t>n-dimensional array</t>
+  </si>
+  <si>
+    <t>Same as vector mappings</t>
+  </si>
+  <si>
+    <t>A mixture of Java numeric types will be converted to the most general type.</t>
+  </si>
+  <si>
+    <t>`numeric`</t>
+  </si>
+  <si>
+    <t>`integer`</t>
+  </si>
+  <si>
+    <t>`character`</t>
+  </si>
+  <si>
+    <t>`logical`</t>
+  </si>
+  <si>
+    <t>`raw`</t>
+  </si>
+  <si>
+    <t>`complex`</t>
+  </si>
+  <si>
+    <t>`Date`</t>
+  </si>
+  <si>
+    <t>`POSIXlt`, `POSIXct`, `POSIXt`</t>
+  </si>
+  <si>
+    <t>R `numeric` vector</t>
+  </si>
+  <si>
+    <t>R `integer` vector</t>
+  </si>
+  <si>
+    <t>R `character` vector</t>
+  </si>
+  <si>
+    <t>R `logical` vector</t>
+  </si>
+  <si>
+    <t>rJava `jbyte` class</t>
+  </si>
+  <si>
+    <t>`NA_real_` maps to a reserved value</t>
+  </si>
+  <si>
+    <t>`NA_integer_ maps` to a reserved value</t>
+  </si>
+  <si>
+    <t>`NA_character_` maps to Java `null`</t>
+  </si>
+  <si>
+    <t>`NA` maps to Java `false`</t>
+  </si>
+  <si>
+    <t>The reserved value for `NA_real_` is not the same as `NaN` in Java, but `Double.isNaN()` will still return `true`.</t>
+  </si>
+  <si>
+    <t>`NA` values are converted to Java `false` with a warning.</t>
+  </si>
+  <si>
+    <t>R `raw` values and Java `byte` values are both 8 bits, but they are interpreted differently. R `raw` values range from 0 to 255 (i.e., unsigned bytes). Java `byte` values range from -128 to 127 (i.e., signed bytes). The 8-bit value 0xff represents 255 in R, but is -1 in Java.</t>
+  </si>
+  <si>
+    <t>`java.lang.Double`</t>
+  </si>
+  <si>
+    <t>`java.lang.Integer`</t>
+  </si>
+  <si>
+    <t>`java.lang.String`</t>
+  </si>
+  <si>
+    <t>`java.lang.Boolean`</t>
+  </si>
+  <si>
+    <t>`java.lang.Byte`</t>
+  </si>
+  <si>
+    <t>`double[]`</t>
+  </si>
+  <si>
+    <t>`int[]`</t>
+  </si>
+  <si>
+    <t>`java.lang.String[]`</t>
+  </si>
+  <si>
+    <t>`boolean[]`</t>
+  </si>
+  <si>
+    <t>`byte[]`</t>
+  </si>
+  <si>
+    <t>`double[]...[]`</t>
+  </si>
+  <si>
+    <t>`int[]...[]`</t>
+  </si>
+  <si>
+    <t>`java.lang.String[]...[]`</t>
+  </si>
+  <si>
+    <t>`boolean[]...[]`</t>
+  </si>
+  <si>
+    <t>`byte[]...[]`</t>
+  </si>
+  <si>
+    <t>Unsupported. Convert to `character`.</t>
+  </si>
+  <si>
+    <t>Overflows result in `Inf`.</t>
+  </si>
+  <si>
+    <t>`logical` vector</t>
+  </si>
+  <si>
+    <t>`logical` vector or array</t>
+  </si>
+  <si>
+    <t>`raw` vector</t>
+  </si>
+  <si>
+    <t>`raw` vector or array</t>
+  </si>
+  <si>
+    <t>list containing `raw` members</t>
+  </si>
+  <si>
+    <t>`numeric` vector</t>
+  </si>
+  <si>
+    <t>`numeric` vector or array</t>
+  </si>
+  <si>
+    <t>`integer` vector</t>
+  </si>
+  <si>
+    <t>`integer` vector or array</t>
+  </si>
+  <si>
+    <t>`character` vector</t>
+  </si>
+  <si>
+    <t>`character` vector or array</t>
+  </si>
+  <si>
+    <t>`NULL`</t>
+  </si>
+  <si>
+    <t>Containing only `null`</t>
+  </si>
+  <si>
+    <t>`FALSE`</t>
+  </si>
+  <si>
+    <t>Java `null` maps to `FALSE` with warning.</t>
+  </si>
+  <si>
+    <t>`raw` `0x00`</t>
+  </si>
+  <si>
+    <t>Java `null` maps to `raw` `0x00` with warning.</t>
+  </si>
+  <si>
+    <t>Java `null` maps to `0x00` with warning.</t>
+  </si>
+  <si>
+    <t>`NA_real_`</t>
+  </si>
+  <si>
+    <t>`NA_character_`</t>
+  </si>
+  <si>
+    <t>`NA_integer_`</t>
+  </si>
+  <si>
+    <t>See documentation for `setStringsAsFactors`. Mixtures of numeric types in the same column will be coerced to the most general type.</t>
+  </si>
+  <si>
+    <t>See documentation for `setStringsAsFactors`.</t>
+  </si>
+  <si>
+    <t>`boolean`, `Boolean`</t>
+  </si>
+  <si>
+    <t>`byte`, `Byte`</t>
+  </si>
+  <si>
+    <t>`char`, `Character`</t>
+  </si>
+  <si>
+    <t>`double`, `Double`</t>
+  </si>
+  <si>
+    <t>`float`, `Float`</t>
+  </si>
+  <si>
+    <t>`int`, `Integer`</t>
+  </si>
+  <si>
+    <t>`java.math.BigDecimal`</t>
+  </si>
+  <si>
+    <t>`java.math.BigInteger`</t>
+  </si>
+  <si>
+    <t>`long`, `Long`</t>
+  </si>
+  <si>
+    <t>`short`, `Short`</t>
+  </si>
+  <si>
+    <t>`boolean[]..[]`, `Boolean[]..[]`</t>
+  </si>
+  <si>
+    <t>`byte[]..[]`, `Byte[]..[]`</t>
+  </si>
+  <si>
+    <t>`char[]..[]`, `Character`[]..[]</t>
+  </si>
+  <si>
+    <t>`double[]..[]`, `Double[]..[]`</t>
+  </si>
+  <si>
+    <t>`float[]..[]`, `Float[]..[]`</t>
+  </si>
+  <si>
+    <t>`int[]..[]`, `Integer[]..[]`</t>
+  </si>
+  <si>
+    <t>`java.math.BigDecimal[]..[]`</t>
+  </si>
+  <si>
+    <t>`java.math.BigInteger[]..[]`</t>
+  </si>
+  <si>
+    <t>`long[]..[]`, `Long[]..[]`</t>
+  </si>
+  <si>
+    <t>`Object[]..[]`</t>
+  </si>
+  <si>
+    <t>`short[]..[]`, `Short[]..[]`</t>
+  </si>
+  <si>
+    <t>`java.lang.String[]..[]`</t>
+  </si>
+  <si>
+    <t>Containing `Byte`/`null`</t>
+  </si>
+  <si>
+    <t>Containing `Integer`/`Short`/`Byte`/`null`</t>
+  </si>
+  <si>
+    <t>Containing a mixture of any other `java.lang.Number` subclasses and `null`</t>
+  </si>
+  <si>
+    <t>Containing `byte`/`Byte` arrays or collections</t>
+  </si>
+  <si>
+    <t>factor when `coerce.factors = TRUE`</t>
+  </si>
+  <si>
+    <t>factor when `coerce.factors = FALSE`</t>
+  </si>
+  <si>
+    <t>data frame when `data.frame.row.major = FALSE`</t>
+  </si>
+  <si>
+    <t>data frame when `data.frame.row.major = TRUE`</t>
+  </si>
+  <si>
+    <t>Map (`java.util.LinkedHashMap`)</t>
+  </si>
+  <si>
+    <t>List (`java.util.ArrayList`)</t>
+  </si>
+  <si>
+    <t>Map (`java.util.LinkedHashMap`) containing arrays that represent each column.</t>
+  </si>
+  <si>
+    <t>List (`java.util.ArrayList`) containing maps (`java.util.LinkedHashMap`) that represent each row.</t>
+  </si>
+  <si>
+    <t>Other structures</t>
+  </si>
+  <si>
+    <t>Unsupported. Use jsr223 callbacks.</t>
+  </si>
+  <si>
+    <t>one-dimensional array and n-dimensional rectangular array (see documentation for array.order)</t>
+  </si>
+  <si>
+    <t>Containing `Character`/`String`/`null`</t>
+  </si>
+  <si>
+    <t>Containing `Boolean`/`null`</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,12 +1265,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1269,128 +1278,128 @@
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -1398,127 +1407,127 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
@@ -1526,127 +1535,127 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
@@ -1655,124 +1664,124 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,7 +1796,7 @@
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
@@ -1795,146 +1804,153 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>222</v>
+      <c r="A49" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="B54" s="6" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="C54" s="7"/>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>87</v>
+      <c r="A56" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>88</v>
+      <c r="A57" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>90</v>
+      <c r="A58" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>201</v>
-      </c>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>91</v>
+      <c r="A60" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>92</v>
+      <c r="A61" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>89</v>
+      <c r="A62" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1945,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1976,723 +1992,559 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10" t="b">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>219</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>224</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>216</v>
+      <c r="A44" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="C48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A57" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,55 +2568,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2794,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -2805,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2816,13 +2668,13 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M13" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2830,18 +2682,18 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -2849,10 +2701,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2860,59 +2712,59 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2925,27 +2777,27 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,7 +2833,7 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +2843,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,20 +2858,20 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,22 +2881,22 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,12 +2911,12 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,17 +2926,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3095,22 +2947,22 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -3120,7 +2972,7 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -3133,25 +2985,25 @@
         <v>9</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s">
         <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -3161,19 +3013,19 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -3183,16 +3035,16 @@
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I78" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -3208,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
@@ -3218,7 +3070,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
@@ -3228,93 +3080,93 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\Work\jdx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Offline\Work\jdx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
   <si>
     <t>logical</t>
   </si>
@@ -373,9 +373,6 @@
     <t>All other contents</t>
   </si>
   <si>
-    <t>Containing &gt; 1 arrays/collections of the same length</t>
-  </si>
-  <si>
     <t>Native JavaScript objects implement the map interface. They will be converted to named lists or data frames as appropriate.</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>matrix / n-dimensional arrays and tables (see documentation for array.order)</t>
   </si>
   <si>
-    <t>boolean[]...[], Boolean[]...[]</t>
-  </si>
-  <si>
     <t>n-dimensional ragged array</t>
   </si>
   <si>
@@ -755,6 +749,9 @@
   </si>
   <si>
     <t>Containing `Boolean`/`null`</t>
+  </si>
+  <si>
+    <t>Containing arrays/collections of the same length</t>
   </si>
 </sst>
 </file>
@@ -1249,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D44"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,12 +1262,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1278,13 +1275,13 @@
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>63</v>
@@ -1292,72 +1289,72 @@
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>109</v>
@@ -1366,12 +1363,12 @@
         <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>109</v>
@@ -1380,12 +1377,12 @@
         <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>109</v>
@@ -1394,12 +1391,12 @@
         <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -1407,13 +1404,13 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>63</v>
@@ -1421,71 +1418,71 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>109</v>
@@ -1494,12 +1491,12 @@
         <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>109</v>
@@ -1508,12 +1505,12 @@
         <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>109</v>
@@ -1522,12 +1519,12 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
@@ -1535,13 +1532,13 @@
     </row>
     <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>63</v>
@@ -1549,71 +1546,71 @@
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>109</v>
@@ -1622,12 +1619,12 @@
         <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>109</v>
@@ -1636,12 +1633,12 @@
         <v>109</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>109</v>
@@ -1650,12 +1647,12 @@
         <v>109</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="16"/>
@@ -1664,13 +1661,13 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>63</v>
@@ -1679,72 +1676,72 @@
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>109</v>
@@ -1753,12 +1750,12 @@
         <v>109</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>109</v>
@@ -1767,12 +1764,12 @@
         <v>109</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>109</v>
@@ -1781,7 +1778,7 @@
         <v>109</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,7 +1793,7 @@
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
@@ -1804,13 +1801,13 @@
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>63</v>
@@ -1818,7 +1815,7 @@
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>64</v>
@@ -1827,7 +1824,7 @@
         <v>64</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,10 +1832,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>33</v>
@@ -1850,19 +1847,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -1874,13 +1871,13 @@
         <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,13 +1885,13 @@
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,10 +1899,10 @@
         <v>68</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,7 +1919,7 @@
         <v>109</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,7 +1933,7 @@
         <v>109</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>109</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1963,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1992,13 +1989,13 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>63</v>
@@ -2006,135 +2003,135 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2142,13 +2139,13 @@
     </row>
     <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>63</v>
@@ -2156,151 +2153,151 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2308,13 +2305,13 @@
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>63</v>
@@ -2322,13 +2319,13 @@
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>112</v>
@@ -2344,13 +2341,13 @@
     </row>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>63</v>
@@ -2367,7 +2364,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>109</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2394,13 +2391,13 @@
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>63</v>
@@ -2408,102 +2405,102 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -2517,7 +2514,7 @@
         <v>109</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,18 +2578,18 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2638,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2891,7 +2888,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,7 +931,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1243,12 +1243,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1957,12 +1955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2550,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
   <si>
     <t>logical</t>
   </si>
@@ -445,15 +445,9 @@
     <t>Java null Behavior</t>
   </si>
   <si>
-    <t>n-dimensional array</t>
-  </si>
-  <si>
     <t>Same as vector mappings</t>
   </si>
   <si>
-    <t>A mixture of Java numeric types will be converted to the most general type.</t>
-  </si>
-  <si>
     <t>`numeric`</t>
   </si>
   <si>
@@ -577,9 +571,6 @@
     <t>`raw` vector or array</t>
   </si>
   <si>
-    <t>list containing `raw` members</t>
-  </si>
-  <si>
     <t>`numeric` vector</t>
   </si>
   <si>
@@ -700,18 +691,6 @@
     <t>`java.lang.String[]..[]`</t>
   </si>
   <si>
-    <t>Containing `Byte`/`null`</t>
-  </si>
-  <si>
-    <t>Containing `Integer`/`Short`/`Byte`/`null`</t>
-  </si>
-  <si>
-    <t>Containing a mixture of any other `java.lang.Number` subclasses and `null`</t>
-  </si>
-  <si>
-    <t>Containing `byte`/`Byte` arrays or collections</t>
-  </si>
-  <si>
     <t>factor when `coerce.factors = TRUE`</t>
   </si>
   <si>
@@ -745,13 +724,28 @@
     <t>one-dimensional array and n-dimensional rectangular array (see documentation for array.order)</t>
   </si>
   <si>
-    <t>Containing `Character`/`String`/`null`</t>
-  </si>
-  <si>
-    <t>Containing `Boolean`/`null`</t>
-  </si>
-  <si>
-    <t>Containing arrays/collections of the same length</t>
+    <t>Containing arrays/collections of the same n dimensions</t>
+  </si>
+  <si>
+    <t>(n + 1)-dimensional array</t>
+  </si>
+  <si>
+    <t>A mixture of Java numeric data types will be converted to the most general data type.</t>
+  </si>
+  <si>
+    <t>Containing scalars of `Byte`/`null`</t>
+  </si>
+  <si>
+    <t>Containing a scalar mixture of any other `java.lang.Number` subclasses and `null`</t>
+  </si>
+  <si>
+    <t>Containing scalars of `Integer`/`Short`/`Byte`/`null`</t>
+  </si>
+  <si>
+    <t>Containing scalars of `Character`/`String`/`null`</t>
+  </si>
+  <si>
+    <t>Containing scalars of `Boolean`/`null`</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1287,72 +1281,72 @@
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>109</v>
@@ -1361,12 +1355,12 @@
         <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>109</v>
@@ -1375,12 +1369,12 @@
         <v>109</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>109</v>
@@ -1389,7 +1383,7 @@
         <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1416,71 +1410,71 @@
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>109</v>
@@ -1489,12 +1483,12 @@
         <v>109</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>109</v>
@@ -1503,12 +1497,12 @@
         <v>109</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>109</v>
@@ -1517,7 +1511,7 @@
         <v>109</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1544,71 +1538,71 @@
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>109</v>
@@ -1617,12 +1611,12 @@
         <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>109</v>
@@ -1631,12 +1625,12 @@
         <v>109</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>109</v>
@@ -1645,7 +1639,7 @@
         <v>109</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1674,72 +1668,72 @@
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>109</v>
@@ -1748,12 +1742,12 @@
         <v>109</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>109</v>
@@ -1762,12 +1756,12 @@
         <v>109</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>109</v>
@@ -1776,7 +1770,7 @@
         <v>109</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,7 +1785,7 @@
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16"/>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>64</v>
@@ -1830,10 +1824,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>33</v>
@@ -1845,19 +1839,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C54" s="7"/>
     </row>
@@ -1869,7 +1863,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>109</v>
@@ -1883,7 +1877,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>109</v>
@@ -1917,7 +1911,7 @@
         <v>109</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,7 +1925,7 @@
         <v>109</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1945,7 +1939,7 @@
         <v>109</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1956,9 +1950,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1999,135 +1995,135 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2149,146 +2145,146 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -2360,7 +2356,7 @@
         <v>109</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2401,128 +2397,117 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>227</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>109</v>
-      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
@@ -2534,10 +2519,7 @@
       <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A56" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
     <sheet name="Converting Java Objects to R" sheetId="3" r:id="rId2"/>
-    <sheet name="Cases" sheetId="1" r:id="rId3"/>
+    <sheet name="Missing Values Summary" sheetId="4" r:id="rId3"/>
+    <sheet name="Cases" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="266">
   <si>
     <t>logical</t>
   </si>
@@ -746,6 +747,84 @@
   </si>
   <si>
     <t>Containing scalars of `Boolean`/`null`</t>
+  </si>
+  <si>
+    <t>\code{NA_real_} maps to a reserved value.</t>
+  </si>
+  <si>
+    <t>\code{NA_integer_ maps} to a reserved value.</t>
+  </si>
+  <si>
+    <t>\code{NA_character_}</t>
+  </si>
+  <si>
+    <t>\code{NA_real_}</t>
+  </si>
+  <si>
+    <t>\code{NA_integer_}</t>
+  </si>
+  <si>
+    <t>\code{NA_character_} maps to Java \code{null}.</t>
+  </si>
+  <si>
+    <t>\code{NA} maps to Java \code{false} with a warning.</t>
+  </si>
+  <si>
+    <t>\code{NULL}</t>
+  </si>
+  <si>
+    <t>Java \code{null} maps to \code{raw} \code{0x00} with warning.</t>
+  </si>
+  <si>
+    <t>Java \code{null} maps to \code{FALSE} with warning.</t>
+  </si>
+  <si>
+    <t>\code{boolean[]..[]}, \code{Boolean[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{byte[]..[]}, \code{Byte[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{char[]..[]}, \code{Character[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{double[]..[]}, \code{Double[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{float[]..[]}, \code{Float[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{int[]..[]}, \code{Integer[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{java.math.BigDecimal[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{java.math.BigInteger[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{long[]..[]}, \code{Long[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{Object[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{short[]..[]}, \code{Short[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{java.lang.String[]..[]}</t>
+  </si>
+  <si>
+    <t>\code{numeric}</t>
+  </si>
+  <si>
+    <t>\code{integer}</t>
+  </si>
+  <si>
+    <t>\code{logical}</t>
+  </si>
+  <si>
+    <t>\code{character}</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1952,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,6 +2609,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F8DFCD-34B3-46E6-8B0F-DDE83ED2555B}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Converting R Objects to Java" sheetId="2" r:id="rId1"/>
     <sheet name="Converting Java Objects to R" sheetId="3" r:id="rId2"/>
-    <sheet name="Missing Values Summary" sheetId="4" r:id="rId3"/>
-    <sheet name="Cases" sheetId="1" r:id="rId4"/>
+    <sheet name="Cases" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
   <si>
     <t>logical</t>
   </si>
@@ -747,84 +746,6 @@
   </si>
   <si>
     <t>Containing scalars of `Boolean`/`null`</t>
-  </si>
-  <si>
-    <t>\code{NA_real_} maps to a reserved value.</t>
-  </si>
-  <si>
-    <t>\code{NA_integer_ maps} to a reserved value.</t>
-  </si>
-  <si>
-    <t>\code{NA_character_}</t>
-  </si>
-  <si>
-    <t>\code{NA_real_}</t>
-  </si>
-  <si>
-    <t>\code{NA_integer_}</t>
-  </si>
-  <si>
-    <t>\code{NA_character_} maps to Java \code{null}.</t>
-  </si>
-  <si>
-    <t>\code{NA} maps to Java \code{false} with a warning.</t>
-  </si>
-  <si>
-    <t>\code{NULL}</t>
-  </si>
-  <si>
-    <t>Java \code{null} maps to \code{raw} \code{0x00} with warning.</t>
-  </si>
-  <si>
-    <t>Java \code{null} maps to \code{FALSE} with warning.</t>
-  </si>
-  <si>
-    <t>\code{boolean[]..[]}, \code{Boolean[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{byte[]..[]}, \code{Byte[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{char[]..[]}, \code{Character[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{double[]..[]}, \code{Double[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{float[]..[]}, \code{Float[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{int[]..[]}, \code{Integer[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{java.math.BigDecimal[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{java.math.BigInteger[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{long[]..[]}, \code{Long[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{Object[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{short[]..[]}, \code{Short[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{java.lang.String[]..[]}</t>
-  </si>
-  <si>
-    <t>\code{numeric}</t>
-  </si>
-  <si>
-    <t>\code{integer}</t>
-  </si>
-  <si>
-    <t>\code{logical}</t>
-  </si>
-  <si>
-    <t>\code{character}</t>
   </si>
 </sst>
 </file>
@@ -1319,9 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2033,9 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2609,177 +2526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F8DFCD-34B3-46E6-8B0F-DDE83ED2555B}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="245">
   <si>
     <t>logical</t>
   </si>
@@ -746,6 +746,21 @@
   </si>
   <si>
     <t>Containing scalars of `Boolean`/`null`</t>
+  </si>
+  <si>
+    <t>`NA` values are converted to `FALSE` with a warning.</t>
+  </si>
+  <si>
+    <t>`NA` maps to `FALSE`</t>
+  </si>
+  <si>
+    <t>`NA_real_` is returned</t>
+  </si>
+  <si>
+    <t>`NA_integer_` is returned</t>
+  </si>
+  <si>
+    <t>`NA_character_` is returned</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1279,7 +1296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>140</v>
       </c>
@@ -1287,10 +1304,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1302,7 +1316,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,7 +1327,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1324,13 +1338,13 @@
         <v>151</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>144</v>
       </c>
@@ -1340,9 +1354,7 @@
       <c r="C8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>159</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
